--- a/data/pca/factorExposure/factorExposure_2013-03-28.xlsx
+++ b/data/pca/factorExposure/factorExposure_2013-03-28.xlsx
@@ -14,9 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
   <si>
     <t>factor1</t>
+  </si>
+  <si>
+    <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -683,838 +689,1462 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B104"/>
+  <dimension ref="A1:D104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>-6.389717676884258e-05</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>-0.001924837804138225</v>
+      </c>
+      <c r="C2">
+        <v>0.03305710103297297</v>
+      </c>
+      <c r="D2">
+        <v>0.0003054487563674784</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>0.001869569343449028</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>0.005966831824170965</v>
+      </c>
+      <c r="C4">
+        <v>0.08578849312304325</v>
+      </c>
+      <c r="D4">
+        <v>-0.0791865672982482</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>0.0006768939046926276</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>0.01352166944889381</v>
+      </c>
+      <c r="C6">
+        <v>0.1130493306672866</v>
+      </c>
+      <c r="D6">
+        <v>-0.03012795414514991</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>0.002132100253650919</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>0.004680237279459929</v>
+      </c>
+      <c r="C7">
+        <v>0.05612764592289233</v>
+      </c>
+      <c r="D7">
+        <v>-0.03089404788663474</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>0.0001766864773555949</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>0.005671295267992094</v>
+      </c>
+      <c r="C8">
+        <v>0.03881162089035846</v>
+      </c>
+      <c r="D8">
+        <v>-0.04013826293235473</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>0.00395375266312339</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>0.004054801859810886</v>
+      </c>
+      <c r="C9">
+        <v>0.07176591135037548</v>
+      </c>
+      <c r="D9">
+        <v>-0.07060294574803745</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>-0.004401558659074387</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>0.005221556227540359</v>
+      </c>
+      <c r="C10">
+        <v>0.05868030677007983</v>
+      </c>
+      <c r="D10">
+        <v>0.2043342296765198</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B11">
-        <v>0.003118715928757389</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>0.005311253709657179</v>
+      </c>
+      <c r="C11">
+        <v>0.08135110220617363</v>
+      </c>
+      <c r="D11">
+        <v>-0.05877382044286805</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B12">
-        <v>-0.0001848055246490881</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>0.003906967630810726</v>
+      </c>
+      <c r="C12">
+        <v>0.06496638167691005</v>
+      </c>
+      <c r="D12">
+        <v>-0.0446216343129676</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B13">
-        <v>-0.003433743129684725</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>0.008448032322524448</v>
+      </c>
+      <c r="C13">
+        <v>0.06678176862770015</v>
+      </c>
+      <c r="D13">
+        <v>-0.06560255604307498</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B14">
-        <v>0.001427693133744472</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>0.001370902401615703</v>
+      </c>
+      <c r="C14">
+        <v>0.04577740440289681</v>
+      </c>
+      <c r="D14">
+        <v>-0.009088897691832633</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B15">
-        <v>0.001111251323144496</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>0.005803176215812025</v>
+      </c>
+      <c r="C15">
+        <v>0.04184452155827233</v>
+      </c>
+      <c r="D15">
+        <v>-0.03118939714834535</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B16">
-        <v>0.001313718471286511</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>0.00490339528483939</v>
+      </c>
+      <c r="C16">
+        <v>0.06679561736408872</v>
+      </c>
+      <c r="D16">
+        <v>-0.044517754667213</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B20">
-        <v>-4.525196755140907e-05</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>0.008785651025003038</v>
+      </c>
+      <c r="C20">
+        <v>0.06814019048400689</v>
+      </c>
+      <c r="D20">
+        <v>-0.04816337322660835</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B21">
-        <v>-0.005416122782628039</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>0.0097996102511279</v>
+      </c>
+      <c r="C21">
+        <v>0.02338234118431733</v>
+      </c>
+      <c r="D21">
+        <v>-0.03473918476529461</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B22">
-        <v>0.01697462165049016</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>-0.006982212651015586</v>
+      </c>
+      <c r="C22">
+        <v>0.09483835031766615</v>
+      </c>
+      <c r="D22">
+        <v>-0.1016227265685662</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B23">
-        <v>0.01729656315790451</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>-0.006797132274071394</v>
+      </c>
+      <c r="C23">
+        <v>0.09571928316683766</v>
+      </c>
+      <c r="D23">
+        <v>-0.1019867103653232</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B24">
-        <v>0.001948287877355296</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>0.005028249681885461</v>
+      </c>
+      <c r="C24">
+        <v>0.07597600063093077</v>
+      </c>
+      <c r="D24">
+        <v>-0.05768333337054234</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B25">
-        <v>0.003847211509990037</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>0.002724224136787906</v>
+      </c>
+      <c r="C25">
+        <v>0.07893191943153113</v>
+      </c>
+      <c r="D25">
+        <v>-0.06361960632164947</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B26">
-        <v>0.00612569352956887</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>0.003450877642592211</v>
+      </c>
+      <c r="C26">
+        <v>0.04202189476232112</v>
+      </c>
+      <c r="D26">
+        <v>-0.02615618960733151</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B28">
-        <v>0.005097732363272546</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>-0.001110764216731669</v>
+      </c>
+      <c r="C28">
+        <v>0.1065488240103083</v>
+      </c>
+      <c r="D28">
+        <v>0.3185847115169514</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B29">
-        <v>0.001107484117417542</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>0.002961104499510752</v>
+      </c>
+      <c r="C29">
+        <v>0.04864103541715236</v>
+      </c>
+      <c r="D29">
+        <v>-0.003145807287812916</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B30">
-        <v>0.003418545620088747</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>0.008924051749262371</v>
+      </c>
+      <c r="C30">
+        <v>0.1457286091284928</v>
+      </c>
+      <c r="D30">
+        <v>-0.09876665806881067</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B31">
-        <v>-0.0001424343202181359</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+        <v>0.006059043149231862</v>
+      </c>
+      <c r="C31">
+        <v>0.04556216905035224</v>
+      </c>
+      <c r="D31">
+        <v>-0.03162713716031346</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B32">
-        <v>0.0004859834087912553</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>0.003825701050156796</v>
+      </c>
+      <c r="C32">
+        <v>0.04007623459473657</v>
+      </c>
+      <c r="D32">
+        <v>-0.02274579343786175</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B33">
-        <v>0.00301489860988522</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
+        <v>0.007901727265847223</v>
+      </c>
+      <c r="C33">
+        <v>0.08703812376563481</v>
+      </c>
+      <c r="D33">
+        <v>-0.07095873699239177</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B34">
-        <v>0.004332399846259069</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
+        <v>0.003712773279915948</v>
+      </c>
+      <c r="C34">
+        <v>0.05871113658484502</v>
+      </c>
+      <c r="D34">
+        <v>-0.04676671779244677</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B35">
-        <v>0.002581085056031285</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
+        <v>0.004710976244228408</v>
+      </c>
+      <c r="C35">
+        <v>0.03983412846079873</v>
+      </c>
+      <c r="D35">
+        <v>-0.0126889350296031</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B36">
-        <v>0.004036917260673164</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+        <v>-0.001405273810075228</v>
+      </c>
+      <c r="C36">
+        <v>0.02510358327678675</v>
+      </c>
+      <c r="D36">
+        <v>-0.02151620337859373</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B38">
-        <v>-0.00236709827850526</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
+        <v>0.009438391409534778</v>
+      </c>
+      <c r="C38">
+        <v>0.03435536415340904</v>
+      </c>
+      <c r="D38">
+        <v>-0.02096739589540027</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B39">
-        <v>0.0127849011957779</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
+        <v>-0.001045004459745373</v>
+      </c>
+      <c r="C39">
+        <v>0.1182419339346524</v>
+      </c>
+      <c r="D39">
+        <v>-0.07200074226932238</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B40">
-        <v>0.009422839533749143</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
+        <v>0.001986924207448738</v>
+      </c>
+      <c r="C40">
+        <v>0.08875703179539692</v>
+      </c>
+      <c r="D40">
+        <v>-0.009786787874238383</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B41">
-        <v>0.0004530037579475421</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
+        <v>0.007122880088761335</v>
+      </c>
+      <c r="C41">
+        <v>0.03793422977143748</v>
+      </c>
+      <c r="D41">
+        <v>-0.03499806906211136</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:2">
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B43">
-        <v>0.003315103509872457</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
+        <v>0.003477908723873453</v>
+      </c>
+      <c r="C43">
+        <v>0.05164919605328316</v>
+      </c>
+      <c r="D43">
+        <v>-0.02365112419272281</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B44">
-        <v>0.002575844854258756</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
+        <v>0.003059027026123822</v>
+      </c>
+      <c r="C44">
+        <v>0.1132815643251632</v>
+      </c>
+      <c r="D44">
+        <v>-0.06909972719880396</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:2">
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B46">
-        <v>0.001757925638322875</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
+        <v>0.002283941826139031</v>
+      </c>
+      <c r="C46">
+        <v>0.03588313544475875</v>
+      </c>
+      <c r="D46">
+        <v>-0.02693345598305319</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B47">
-        <v>-0.0005542947048273986</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
+        <v>0.002638208548380902</v>
+      </c>
+      <c r="C47">
+        <v>0.03759495726076829</v>
+      </c>
+      <c r="D47">
+        <v>-0.02521918970127798</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B48">
-        <v>-0.003243001819870215</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
+        <v>0.006360436236122361</v>
+      </c>
+      <c r="C48">
+        <v>0.02969274579798529</v>
+      </c>
+      <c r="D48">
+        <v>-0.03172366167784066</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B49">
-        <v>0.01388728412674287</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
+        <v>0.0145303344400584</v>
+      </c>
+      <c r="C49">
+        <v>0.1826705353866004</v>
+      </c>
+      <c r="D49">
+        <v>-0.01054514031608491</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B50">
-        <v>0.001405639092190544</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
+        <v>0.003482584445728484</v>
+      </c>
+      <c r="C50">
+        <v>0.04413378038079729</v>
+      </c>
+      <c r="D50">
+        <v>-0.03506005399459751</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B51">
-        <v>-0.0003049805857745416</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
+        <v>0.004282748721272445</v>
+      </c>
+      <c r="C51">
+        <v>0.02519244692779065</v>
+      </c>
+      <c r="D51">
+        <v>-0.02147680325803809</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:2">
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B53">
-        <v>-0.0007901006542708074</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
+        <v>0.02018134929529251</v>
+      </c>
+      <c r="C53">
+        <v>0.1695585949428784</v>
+      </c>
+      <c r="D53">
+        <v>-0.03580370663482172</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B54">
-        <v>-0.0007373736087736496</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
+        <v>0.008642242128914027</v>
+      </c>
+      <c r="C54">
+        <v>0.05649691734217783</v>
+      </c>
+      <c r="D54">
+        <v>-0.04153889798748941</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B55">
-        <v>0.003860649674828748</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
+        <v>0.009285618696732037</v>
+      </c>
+      <c r="C55">
+        <v>0.1102861237619355</v>
+      </c>
+      <c r="D55">
+        <v>-0.04418906052529159</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B56">
-        <v>-0.003332443383061099</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
+        <v>0.01967314590940869</v>
+      </c>
+      <c r="C56">
+        <v>0.1762261769680497</v>
+      </c>
+      <c r="D56">
+        <v>-0.03704637155808435</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:2">
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B58">
-        <v>0.007207594482983795</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
+        <v>0.01923064811851246</v>
+      </c>
+      <c r="C58">
+        <v>0.1077068367418186</v>
+      </c>
+      <c r="D58">
+        <v>-0.05526076623573589</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B59">
-        <v>0.006699367145062281</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
+        <v>0.0090406821849176</v>
+      </c>
+      <c r="C59">
+        <v>0.1576023287981296</v>
+      </c>
+      <c r="D59">
+        <v>0.3053860074284688</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B60">
-        <v>0.004206190152705021</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
+        <v>0.02319275735475445</v>
+      </c>
+      <c r="C60">
+        <v>0.223464747346434</v>
+      </c>
+      <c r="D60">
+        <v>-0.02213372276324397</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B61">
-        <v>0.01458890253911346</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
+        <v>-0.00209203068602847</v>
+      </c>
+      <c r="C61">
+        <v>0.0962882254258224</v>
+      </c>
+      <c r="D61">
+        <v>-0.05630139182645948</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B62">
-        <v>-0.1697549880034229</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
+        <v>0.1440746314704164</v>
+      </c>
+      <c r="C62">
+        <v>0.0889158239173703</v>
+      </c>
+      <c r="D62">
+        <v>-0.04489726344256184</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B63">
-        <v>0.001069125258813709</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
+        <v>0.006153555311053587</v>
+      </c>
+      <c r="C63">
+        <v>0.05698651500404019</v>
+      </c>
+      <c r="D63">
+        <v>-0.02550287248351933</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B64">
-        <v>0.005164763370820909</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
+        <v>0.01475694769068047</v>
+      </c>
+      <c r="C64">
+        <v>0.1055647139830811</v>
+      </c>
+      <c r="D64">
+        <v>-0.05799123211448799</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B65">
-        <v>-0.002292156077146453</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
+        <v>0.01718197098321788</v>
+      </c>
+      <c r="C65">
+        <v>0.1209507417129197</v>
+      </c>
+      <c r="D65">
+        <v>-0.01407058833247953</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B66">
-        <v>0.007972285381422552</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
+        <v>0.01227269067916268</v>
+      </c>
+      <c r="C66">
+        <v>0.1606226930062486</v>
+      </c>
+      <c r="D66">
+        <v>-0.1107247631999645</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B67">
-        <v>-0.003837538866818142</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
+        <v>0.01549825949166794</v>
+      </c>
+      <c r="C67">
+        <v>0.06515454835608844</v>
+      </c>
+      <c r="D67">
+        <v>-0.02954498876190349</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B68">
-        <v>0.006704882514040812</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
+        <v>0.0005314317931764326</v>
+      </c>
+      <c r="C68">
+        <v>0.08643891364564854</v>
+      </c>
+      <c r="D68">
+        <v>0.2516171920849246</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B69">
-        <v>0.002907137477853828</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
+        <v>0.005882226598121616</v>
+      </c>
+      <c r="C69">
+        <v>0.05151612896653276</v>
+      </c>
+      <c r="D69">
+        <v>-0.03747103464822039</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B70">
-        <v>-4.288558474554203e-05</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
+        <v>0.001796106190267543</v>
+      </c>
+      <c r="C70">
+        <v>0.002453372531997742</v>
+      </c>
+      <c r="D70">
+        <v>-0.0006471039242036342</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B71">
-        <v>0.001331617438192829</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
+        <v>0.00577364755259738</v>
+      </c>
+      <c r="C71">
+        <v>0.09677673638541992</v>
+      </c>
+      <c r="D71">
+        <v>0.2979843615090244</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B72">
-        <v>0.0051268556856141</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
+        <v>0.01536858901350726</v>
+      </c>
+      <c r="C72">
+        <v>0.1495995751658824</v>
+      </c>
+      <c r="D72">
+        <v>-0.02116052503355977</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B73">
-        <v>0.01221862337586144</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
+        <v>0.02914577066376021</v>
+      </c>
+      <c r="C73">
+        <v>0.2764092380648301</v>
+      </c>
+      <c r="D73">
+        <v>-0.04875834786110145</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B74">
-        <v>0.004788617220487529</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
+        <v>0.001293196840396246</v>
+      </c>
+      <c r="C74">
+        <v>0.1054207143907435</v>
+      </c>
+      <c r="D74">
+        <v>-0.03668524506999698</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B75">
-        <v>0.002690891916502836</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
+        <v>0.01066782234743052</v>
+      </c>
+      <c r="C75">
+        <v>0.1310428848228441</v>
+      </c>
+      <c r="D75">
+        <v>-0.02383844658878871</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
       <c r="A76" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B76">
-        <v>-0.009418210975990873</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
+        <v>0.02118244738745893</v>
+      </c>
+      <c r="C76">
+        <v>0.1511773759899296</v>
+      </c>
+      <c r="D76">
+        <v>-0.06339967996722251</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B77">
-        <v>-6.791016563868203e-05</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
+        <v>0.02402237334191991</v>
+      </c>
+      <c r="C77">
+        <v>0.1348386045652906</v>
+      </c>
+      <c r="D77">
+        <v>-0.05672859224871692</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B78">
-        <v>-0.001700886489820851</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
+        <v>0.01421266151018639</v>
+      </c>
+      <c r="C78">
+        <v>0.09594441627270642</v>
+      </c>
+      <c r="D78">
+        <v>-0.06724341517675284</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B79">
-        <v>-0.02455884764113733</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
+        <v>0.03693889715100535</v>
+      </c>
+      <c r="C79">
+        <v>0.1572841727612186</v>
+      </c>
+      <c r="D79">
+        <v>-0.03196257281446899</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B80">
-        <v>-0.004908300063296898</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
+        <v>0.01049129211584497</v>
+      </c>
+      <c r="C80">
+        <v>0.04322129419767134</v>
+      </c>
+      <c r="D80">
+        <v>-0.0299968444283202</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
       <c r="A81" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B81">
-        <v>-0.0003460024094942319</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
+        <v>0.01464713232909094</v>
+      </c>
+      <c r="C81">
+        <v>0.1290044935174222</v>
+      </c>
+      <c r="D81">
+        <v>-0.041543649771486</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B82">
-        <v>-0.00570827243963861</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
+        <v>0.01953924663958129</v>
+      </c>
+      <c r="C82">
+        <v>0.1456956714446475</v>
+      </c>
+      <c r="D82">
+        <v>-0.04059198192513679</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
       <c r="A83" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B83">
-        <v>0.008640375200502105</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
+        <v>0.009978382590997471</v>
+      </c>
+      <c r="C83">
+        <v>0.0578298003441704</v>
+      </c>
+      <c r="D83">
+        <v>-0.05336072173866556</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
       <c r="A84" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B84">
-        <v>-0.01282911333447523</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
+        <v>0.01156138147873647</v>
+      </c>
+      <c r="C84">
+        <v>0.0379841776574358</v>
+      </c>
+      <c r="D84">
+        <v>0.01012533118065613</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
       <c r="A85" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B85">
-        <v>-0.01564406775124407</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
+        <v>0.02776721036313733</v>
+      </c>
+      <c r="C85">
+        <v>0.1308609938516559</v>
+      </c>
+      <c r="D85">
+        <v>-0.04419644966952907</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
       <c r="A86" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B86">
-        <v>0.001391075036882744</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
+        <v>0.005285513472379258</v>
+      </c>
+      <c r="C86">
+        <v>0.04873895663807917</v>
+      </c>
+      <c r="D86">
+        <v>-0.0212597560878081</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
       <c r="A87" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B87">
-        <v>0.005013103557779023</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
+        <v>0.01025956754409672</v>
+      </c>
+      <c r="C87">
+        <v>0.1339232258251751</v>
+      </c>
+      <c r="D87">
+        <v>-0.06316128646234843</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
       <c r="A88" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B88">
-        <v>0.01319348535134015</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
+        <v>-0.003060981678721577</v>
+      </c>
+      <c r="C88">
+        <v>0.06778575562115438</v>
+      </c>
+      <c r="D88">
+        <v>-0.009748063036181216</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
       <c r="A89" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B89">
-        <v>0.01525828257698843</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
+        <v>-0.00190312720931368</v>
+      </c>
+      <c r="C89">
+        <v>0.1442128748279584</v>
+      </c>
+      <c r="D89">
+        <v>0.3536686282767567</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
       <c r="A90" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B90">
-        <v>0.003005019097567126</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
+        <v>0.006706679340019458</v>
+      </c>
+      <c r="C90">
+        <v>0.1204310795901174</v>
+      </c>
+      <c r="D90">
+        <v>0.3228979961634028</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
       <c r="A91" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B91">
-        <v>-0.0008402919409985247</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
+        <v>0.01014422659423995</v>
+      </c>
+      <c r="C91">
+        <v>0.1033901755755243</v>
+      </c>
+      <c r="D91">
+        <v>-0.02167686964949572</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
       <c r="A92" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B92">
-        <v>0.008753448043459846</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
+        <v>0.0002412193412882658</v>
+      </c>
+      <c r="C92">
+        <v>0.132923500829845</v>
+      </c>
+      <c r="D92">
+        <v>0.3341733749824377</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
       <c r="A93" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B93">
-        <v>0.0007367909121181081</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
+        <v>0.004636218257618992</v>
+      </c>
+      <c r="C93">
+        <v>0.1040653690193693</v>
+      </c>
+      <c r="D93">
+        <v>0.3166236582814881</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
       <c r="A94" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B94">
-        <v>-0.00397062342259923</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
+        <v>0.02223032208332824</v>
+      </c>
+      <c r="C94">
+        <v>0.1540737828568108</v>
+      </c>
+      <c r="D94">
+        <v>-0.04697671384740252</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
       <c r="A95" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B95">
-        <v>0.004737001631431214</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
+        <v>0.01602868550614491</v>
+      </c>
+      <c r="C95">
+        <v>0.1279247819461241</v>
+      </c>
+      <c r="D95">
+        <v>-0.06057606507871699</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
       <c r="A96" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:2">
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
       <c r="A97" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B97">
-        <v>0.001779252130356119</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
+        <v>0.03398371618618966</v>
+      </c>
+      <c r="C97">
+        <v>0.1913436766779166</v>
+      </c>
+      <c r="D97">
+        <v>-0.004255988179383057</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
       <c r="A98" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B98">
-        <v>0.003922555903558105</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
+        <v>0.0357055485667074</v>
+      </c>
+      <c r="C98">
+        <v>0.2478955672607484</v>
+      </c>
+      <c r="D98">
+        <v>-0.0506532616572473</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
       <c r="A99" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B99">
-        <v>-0.9835267277379767</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
+        <v>0.9827317408117238</v>
+      </c>
+      <c r="C99">
+        <v>-0.1118105434419577</v>
+      </c>
+      <c r="D99">
+        <v>0.02693641524732724</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
       <c r="A100" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:2">
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
       <c r="A101" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B101">
-        <v>0.00106077638934124</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
+        <v>0.003005857886029114</v>
+      </c>
+      <c r="C101">
+        <v>0.04867143170601848</v>
+      </c>
+      <c r="D101">
+        <v>-0.003612511070076735</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
       <c r="A102" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:2">
+      <c r="C102">
+        <v>0</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
       <c r="A103" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:2">
+      <c r="C103">
+        <v>0</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
       <c r="A104" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B104">
+        <v>0</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
         <v>0</v>
       </c>
     </row>
